--- a/data/Radiomics_moderators.xlsx
+++ b/data/Radiomics_moderators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Git\sa-uta8-utaut\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A89FA5A-8C00-4714-8AB2-F9FA2C4DC006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3BC16-F776-4531-A27D-73276C217518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Q10</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Female</t>
-  </si>
-  <si>
-    <t>Prefer not to say</t>
   </si>
   <si>
     <t>gender</t>
@@ -336,9 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -349,6 +343,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,9 +570,9 @@
   </sheetPr>
   <dimension ref="A1:AP1182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,46 +587,46 @@
   <sheetData>
     <row r="1" spans="1:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>0</v>
@@ -6604,7 +6601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>1</v>
       </c>
@@ -6732,7 +6729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>2</v>
       </c>
@@ -6860,7 +6857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>2</v>
       </c>
@@ -6988,7 +6985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>2</v>
       </c>
@@ -7116,7 +7113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>2</v>
       </c>
@@ -7244,7 +7241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -7372,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -7500,7 +7497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>1</v>
       </c>
@@ -7628,7 +7625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>1</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>2</v>
       </c>
@@ -7884,7 +7881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -8012,7 +8009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>2</v>
       </c>
@@ -8140,7 +8137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>2</v>
       </c>
@@ -8268,7 +8265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>2</v>
       </c>
@@ -8396,7 +8393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -8524,7 +8521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>1</v>
       </c>
@@ -8652,7 +8649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>2</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>1</v>
       </c>
@@ -8908,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>2</v>
       </c>
@@ -9036,7 +9033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>2</v>
       </c>
@@ -9164,7 +9161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>2</v>
       </c>
@@ -9292,7 +9289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>2</v>
       </c>
@@ -9420,7 +9417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>2</v>
       </c>
@@ -9548,7 +9545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>2</v>
       </c>
@@ -9676,7 +9673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>2</v>
       </c>
@@ -9804,7 +9801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>1</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>2</v>
       </c>
@@ -10060,7 +10057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>2</v>
       </c>
@@ -10188,7 +10185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>1</v>
       </c>
@@ -10316,7 +10313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>2</v>
       </c>
@@ -10444,7 +10441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -10572,7 +10569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>1</v>
       </c>
@@ -10700,7 +10697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>2</v>
       </c>
@@ -10828,7 +10825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>1</v>
       </c>
@@ -10956,7 +10953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>2</v>
       </c>
@@ -11084,7 +11081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>2</v>
       </c>
@@ -11212,7 +11209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>2</v>
       </c>
@@ -11340,7 +11337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>1</v>
       </c>
@@ -11468,7 +11465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>2</v>
       </c>
@@ -11596,7 +11593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>2</v>
       </c>
@@ -11724,7 +11721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>2</v>
       </c>
@@ -11852,7 +11849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>1</v>
       </c>
@@ -11980,7 +11977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>1</v>
       </c>
@@ -12108,7 +12105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>1</v>
       </c>
@@ -12364,7 +12361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1</v>
       </c>
@@ -12492,7 +12489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>1</v>
       </c>
@@ -12620,7 +12617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>2</v>
       </c>
@@ -12748,7 +12745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>2</v>
       </c>
@@ -12876,7 +12873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>1</v>
       </c>
@@ -13004,7 +13001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>2</v>
       </c>
@@ -13132,7 +13129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>2</v>
       </c>
@@ -13260,7 +13257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>1</v>
       </c>
@@ -13388,7 +13385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>2</v>
       </c>
@@ -13516,7 +13513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>2</v>
       </c>
@@ -13644,7 +13641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>2</v>
       </c>
@@ -13772,7 +13769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>2</v>
       </c>
@@ -13900,7 +13897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>2</v>
       </c>
@@ -14028,7 +14025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>1</v>
       </c>
@@ -14156,7 +14153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>1</v>
       </c>
@@ -14284,7 +14281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1</v>
       </c>
@@ -14412,7 +14409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1</v>
       </c>
@@ -14540,7 +14537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>2</v>
       </c>
@@ -14668,7 +14665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -14796,7 +14793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>2</v>
       </c>
@@ -14924,7 +14921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>2</v>
       </c>
@@ -15052,7 +15049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1</v>
       </c>
@@ -15180,7 +15177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>2</v>
       </c>
@@ -15308,7 +15305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>2</v>
       </c>
@@ -15436,7 +15433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>2</v>
       </c>
@@ -15564,7 +15561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>1</v>
       </c>
@@ -15692,7 +15689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>1</v>
       </c>
@@ -15820,7 +15817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>1</v>
       </c>
@@ -15948,7 +15945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>1</v>
       </c>
@@ -16076,7 +16073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>2</v>
       </c>
@@ -16204,7 +16201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>1</v>
       </c>
@@ -16332,7 +16329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>1</v>
       </c>
@@ -16460,7 +16457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>1</v>
       </c>
@@ -16588,7 +16585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1</v>
       </c>
@@ -16716,7 +16713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>2</v>
       </c>
@@ -16844,7 +16841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>2</v>
       </c>
@@ -16972,7 +16969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>1</v>
       </c>
@@ -17100,7 +17097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>2</v>
       </c>
@@ -17228,7 +17225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>2</v>
       </c>
@@ -17356,7 +17353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>1</v>
       </c>
@@ -17484,7 +17481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>2</v>
       </c>
@@ -17612,7 +17609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>2</v>
       </c>
@@ -17740,7 +17737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -17868,7 +17865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>2</v>
       </c>
@@ -17996,7 +17993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>2</v>
       </c>
@@ -18124,7 +18121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>2</v>
       </c>
@@ -18252,7 +18249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>2</v>
       </c>
@@ -18380,7 +18377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>2</v>
       </c>
@@ -18508,7 +18505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>1</v>
       </c>
@@ -18636,7 +18633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>2</v>
       </c>
@@ -18764,7 +18761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>1</v>
       </c>
@@ -18892,7 +18889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>2</v>
       </c>
@@ -19020,7 +19017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -19148,7 +19145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>1</v>
       </c>
@@ -19404,7 +19401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>1</v>
       </c>
@@ -19532,7 +19529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>1</v>
       </c>
@@ -19660,7 +19657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>2</v>
       </c>
@@ -19788,7 +19785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>1</v>
       </c>
@@ -19916,7 +19913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>2</v>
       </c>
@@ -20044,7 +20041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>1</v>
       </c>
@@ -20172,7 +20169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>2</v>
       </c>
@@ -20300,7 +20297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>1</v>
       </c>
@@ -20428,7 +20425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>1</v>
       </c>
@@ -20556,7 +20553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>1</v>
       </c>
@@ -20684,7 +20681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>1</v>
       </c>
@@ -20812,7 +20809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>2</v>
       </c>
@@ -20940,7 +20937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>1</v>
       </c>
@@ -21068,7 +21065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>2</v>
       </c>
@@ -21196,7 +21193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>1</v>
       </c>
@@ -21324,7 +21321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>1</v>
       </c>
@@ -21452,7 +21449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>1</v>
       </c>
@@ -21580,7 +21577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>1</v>
       </c>
@@ -21836,7 +21833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>2</v>
       </c>
@@ -21964,7 +21961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>2</v>
       </c>
@@ -22092,7 +22089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>2</v>
       </c>
@@ -22220,7 +22217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>2</v>
       </c>
@@ -22348,7 +22345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>2</v>
       </c>
@@ -22476,7 +22473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>1</v>
       </c>
@@ -22604,7 +22601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>1</v>
       </c>
@@ -22732,7 +22729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>1</v>
       </c>
@@ -22860,7 +22857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>1</v>
       </c>
@@ -22988,7 +22985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>2</v>
       </c>
@@ -23116,7 +23113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>1</v>
       </c>
@@ -23244,7 +23241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>1</v>
       </c>
@@ -23372,7 +23369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>2</v>
       </c>
@@ -23500,7 +23497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>2</v>
       </c>
@@ -23628,7 +23625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>2</v>
       </c>
@@ -23756,7 +23753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>2</v>
       </c>
@@ -23884,7 +23881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>2</v>
       </c>
@@ -24012,7 +24009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>2</v>
       </c>
@@ -24140,7 +24137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>1</v>
       </c>
@@ -24268,7 +24265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>2</v>
       </c>
@@ -24396,7 +24393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>2</v>
       </c>
@@ -24652,7 +24649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>1</v>
       </c>
@@ -24780,7 +24777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>1</v>
       </c>
@@ -24908,7 +24905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>1</v>
       </c>
@@ -25164,7 +25161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>2</v>
       </c>
@@ -25292,7 +25289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>1</v>
       </c>
@@ -25420,7 +25417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>2</v>
       </c>
@@ -25548,7 +25545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>1</v>
       </c>
@@ -25676,7 +25673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>1</v>
       </c>
@@ -25804,7 +25801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>2</v>
       </c>
@@ -25932,7 +25929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>2</v>
       </c>
@@ -26188,7 +26185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>2</v>
       </c>
@@ -26316,7 +26313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>1</v>
       </c>
@@ -26444,7 +26441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>2</v>
       </c>
@@ -26572,7 +26569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>1</v>
       </c>
@@ -26700,7 +26697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>1</v>
       </c>
@@ -26828,7 +26825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -26956,7 +26953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>2</v>
       </c>
@@ -27084,7 +27081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>1</v>
       </c>
@@ -27212,7 +27209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>2</v>
       </c>
@@ -27340,7 +27337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>2</v>
       </c>
@@ -27468,7 +27465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>1</v>
       </c>
@@ -27596,7 +27593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>1</v>
       </c>
@@ -27724,7 +27721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>1</v>
       </c>
@@ -27852,7 +27849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>1</v>
       </c>
@@ -27980,7 +27977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>2</v>
       </c>
@@ -28108,7 +28105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>2</v>
       </c>
@@ -28236,7 +28233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>2</v>
       </c>
@@ -28364,7 +28361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>2</v>
       </c>
@@ -28492,7 +28489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>1</v>
       </c>
@@ -28620,7 +28617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>2</v>
       </c>
@@ -28876,7 +28873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>2</v>
       </c>
@@ -29004,7 +29001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>2</v>
       </c>
@@ -29132,7 +29129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>2</v>
       </c>
@@ -29260,7 +29257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>1</v>
       </c>
@@ -29388,7 +29385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>2</v>
       </c>
@@ -29516,7 +29513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>2</v>
       </c>
@@ -29644,7 +29641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>2</v>
       </c>
@@ -29772,7 +29769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>1</v>
       </c>
@@ -29900,7 +29897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>2</v>
       </c>
@@ -30028,7 +30025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>1</v>
       </c>
@@ -30156,7 +30153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>2</v>
       </c>
@@ -30284,7 +30281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>2</v>
       </c>
@@ -30412,7 +30409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>2</v>
       </c>
@@ -30540,7 +30537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>2</v>
       </c>
@@ -30668,7 +30665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>2</v>
       </c>
@@ -30796,7 +30793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>2</v>
       </c>
@@ -30924,7 +30921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>2</v>
       </c>
@@ -31052,7 +31049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>1</v>
       </c>
@@ -31180,7 +31177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>2</v>
       </c>
@@ -31308,7 +31305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>1</v>
       </c>
@@ -31436,7 +31433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>2</v>
       </c>
@@ -31564,7 +31561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>2</v>
       </c>
@@ -31692,7 +31689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>2</v>
       </c>
@@ -31820,7 +31817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>2</v>
       </c>
@@ -31948,7 +31945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>2</v>
       </c>
@@ -32076,7 +32073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>1</v>
       </c>
@@ -32204,7 +32201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>1</v>
       </c>
@@ -32332,7 +32329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>2</v>
       </c>
@@ -32460,7 +32457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>2</v>
       </c>
@@ -32588,7 +32585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>1</v>
       </c>
@@ -32716,7 +32713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>2</v>
       </c>
@@ -32844,7 +32841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -32972,7 +32969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>2</v>
       </c>
@@ -33100,7 +33097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>2</v>
       </c>
@@ -33228,7 +33225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>2</v>
       </c>
@@ -33356,7 +33353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>2</v>
       </c>
@@ -33484,7 +33481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>2</v>
       </c>
@@ -33612,7 +33609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>1</v>
       </c>
@@ -33740,7 +33737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>1</v>
       </c>
@@ -33868,7 +33865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>2</v>
       </c>
@@ -33996,7 +33993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>1</v>
       </c>
@@ -34124,7 +34121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>2</v>
       </c>
@@ -34252,7 +34249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>1</v>
       </c>
@@ -34380,7 +34377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>1</v>
       </c>
@@ -34508,7 +34505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>2</v>
       </c>
@@ -34636,7 +34633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>1</v>
       </c>
@@ -34764,7 +34761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>1</v>
       </c>
@@ -34892,7 +34889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>2</v>
       </c>
@@ -35020,7 +35017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>2</v>
       </c>
@@ -35148,7 +35145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>2</v>
       </c>
@@ -35276,7 +35273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>1</v>
       </c>
@@ -35404,7 +35401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>2</v>
       </c>
@@ -35532,7 +35529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>2</v>
       </c>
@@ -35660,7 +35657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>2</v>
       </c>
@@ -35788,7 +35785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>1</v>
       </c>
@@ -35916,7 +35913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:42" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>2</v>
       </c>
@@ -36044,7 +36041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>2</v>
       </c>
@@ -36172,7 +36169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>2</v>
       </c>
@@ -36300,7 +36297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>2</v>
       </c>
@@ -36428,7 +36425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:42" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>1</v>
       </c>
@@ -36556,7 +36553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:42" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:42" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>1</v>
       </c>
@@ -72024,132 +72021,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D27872E-0C95-499F-BFFE-D16EBA5A0B55}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="6" customWidth="1"/>
-    <col min="2" max="4" width="17.77734375" style="6" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="6"/>
-    <col min="7" max="8" width="17.77734375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="2" max="3" width="17.77734375" style="6" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="6"/>
+    <col min="6" max="7" width="17.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="K2" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="11">
-        <v>1</v>
-      </c>
-      <c r="J3" s="11">
-        <v>2</v>
-      </c>
-      <c r="K3" s="11">
-        <v>1</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Radiomics_moderators.xlsx
+++ b/data/Radiomics_moderators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Git\sa-uta8-utaut\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE3BC16-F776-4531-A27D-73276C217518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C115B28-F019-4155-8D66-57C564C446EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Q10</t>
   </si>
@@ -571,7 +571,7 @@
   <dimension ref="A1:AP1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
@@ -72024,7 +72024,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -72042,7 +72042,9 @@
       <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12" t="s">
         <v>46</v>
